--- a/Data/Raw Data/walk_trail.xlsx
+++ b/Data/Raw Data/walk_trail.xlsx
@@ -5,21 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixbaez822/Community-Visioning/R/Felix/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixbaez822/Community-Visioning/Data/Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4422F6-FFEB-5042-9083-B52FDA07E405}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570F972D-7C7F-BC4B-A8FD-A7BA20783035}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="500" windowWidth="25380" windowHeight="15760" activeTab="1" xr2:uid="{9AE7E273-AC85-224E-9256-BEE2236B4976}"/>
+    <workbookView xWindow="3040" yWindow="440" windowWidth="25380" windowHeight="15760" firstSheet="1" activeTab="5" xr2:uid="{9AE7E273-AC85-224E-9256-BEE2236B4976}"/>
   </bookViews>
   <sheets>
     <sheet name="WalkScores" sheetId="5" r:id="rId1"/>
     <sheet name="BikingData" sheetId="7" r:id="rId2"/>
-    <sheet name="TrailScores" sheetId="1" r:id="rId3"/>
-    <sheet name="Correlations" sheetId="2" r:id="rId4"/>
-    <sheet name="Trail Corr with Marital Status" sheetId="6" r:id="rId5"/>
-    <sheet name="Correlations with Age" sheetId="3" r:id="rId6"/>
-    <sheet name="Walk Corr with Marital Status" sheetId="4" r:id="rId7"/>
+    <sheet name="Income" sheetId="8" r:id="rId3"/>
+    <sheet name="Correlations with Income" sheetId="9" r:id="rId4"/>
+    <sheet name="Household" sheetId="10" r:id="rId5"/>
+    <sheet name="Household Corrs" sheetId="11" r:id="rId6"/>
+    <sheet name="TrailScores" sheetId="1" r:id="rId7"/>
+    <sheet name="Correlations" sheetId="2" r:id="rId8"/>
+    <sheet name="Trail Corr with Marital Status" sheetId="6" r:id="rId9"/>
+    <sheet name="Correlations with Age" sheetId="3" r:id="rId10"/>
+    <sheet name="Walk Corr with Marital Status" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="93">
   <si>
     <t>Town</t>
   </si>
@@ -265,13 +269,64 @@
   </si>
   <si>
     <t>9 missing</t>
+  </si>
+  <si>
+    <t>Cities</t>
+  </si>
+  <si>
+    <t>Mean Income</t>
+  </si>
+  <si>
+    <t>Wheatfield</t>
+  </si>
+  <si>
+    <t>Adel</t>
+  </si>
+  <si>
+    <t>Trees &amp; Shade</t>
+  </si>
+  <si>
+    <t>Vehicular Traffic</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Downtown</t>
+  </si>
+  <si>
+    <t>Trail Length</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Weighted Average</t>
+  </si>
+  <si>
+    <t>Colfax</t>
+  </si>
+  <si>
+    <t>University Heights</t>
+  </si>
+  <si>
+    <t>Kalona</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Hampton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -326,6 +381,19 @@
       <color rgb="FF333399"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF080808"/>
+      <name val="Courier"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -462,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -495,6 +563,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,7 +882,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B31"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2551,6 +2621,453 @@
       </c>
       <c r="R31">
         <v>3.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BD1D83-1532-C641-B9F3-C1064633A433}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>-0.12671650000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>-0.17773839999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.26469169999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1.6461489999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>-0.28818189999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>-0.13087360000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.16556219999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>-0.1059253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>-0.3443233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1.5160369999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>-0.3522093</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <v>-2.6415050000000002E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.4915156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>3.869802E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.17957139999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9944E6D6-BD91-D54B-9179-05A0BDA10A1D}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-3.4939270000000001E-2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.32838040000000002</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-0.1889747</v>
+      </c>
+      <c r="E2" s="3">
+        <v>8.2287639999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.1162682</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-0.1808044</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.1259487</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-0.1422572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.32546560000000002</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.13265550000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-0.37767020000000001</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.39188800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.27527020000000002</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-8.0646920000000005E-4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-0.18215139999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.17886270000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.1262373</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.2870896</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-4.809679E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-0.23127739999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-0.30395230000000001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-0.34296870000000002</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.42032350000000002</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-0.29848819999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.1149671</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-1.547747E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-0.10989259999999999</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.15225630000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9.8014329999999997E-2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8.1776390000000004E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-9.001265E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4.3051760000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-9.8645559999999993E-2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.046708E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.1389348</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-0.20229569999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.11586390000000001</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-7.9664509999999994E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9.1518020000000005E-3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-1.6986250000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-6.8386790000000003E-2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-8.2679970000000005E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.24817130000000001</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-0.33922380000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.1230861</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.3340687</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-0.22645129999999999</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5.9178950000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.42599169999999997</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-5.2599739999999999E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-0.36433070000000001</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.46783039999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.29788130000000002</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.43515569999999998</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-0.41631629999999997</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.2213426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.26608290000000001</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.17551900000000001</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-0.33442670000000002</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.30627450000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>-0.36076429999999998</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-0.24852489999999999</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.3760618</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-0.26585819999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2562,7 +3079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9A031C-673E-F244-8EDA-106EA37D4FB6}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -2863,6 +3380,850 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4C35A3-4386-B14D-832C-C90758E9BD82}">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="14">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="14">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="14">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="14">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="14">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="14">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="14">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="14">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="14">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="14">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="14">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="14">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="14">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="14">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="14">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="14">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="14">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="14">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="14">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="14">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="14">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="14">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="14">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="14">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="14">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="14">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6FADB6-D8CB-BB47-B1D8-0287BF79C0A6}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1">
+        <v>0.20743310000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.37088490000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.1285558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>8.5716879999999995E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.25570660000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6">
+        <v>7.1750499999999997E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.26300669999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>-0.32309900000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>-0.42664879999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>-4.7898209999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11">
+        <v>-0.3396709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12">
+        <v>9.6626749999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>-0.36489329999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>-0.11475490000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15">
+        <v>-9.2848650000000005E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16">
+        <v>3.2676869999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912FA25D-6117-BB4C-9B8A-66D4A8B312C5}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="14">
+        <v>2.3039999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>2.6429999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="14">
+        <f>161.3/100</f>
+        <v>1.6130000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1.4890000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>1.694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <f>162/100</f>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>1.4750000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>1.8109999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11">
+        <v>1.115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>1.478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>1.722</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>1.7969999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>1.629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>1.7430000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>1.8109999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>1.647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>1.778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>1.643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25">
+        <v>2.645</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26">
+        <v>1.774</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27">
+        <v>1.6970000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28">
+        <v>1.7509999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>1.5089999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1.516</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1.5649999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98EB838-F28D-9E4A-AA0F-A52983BE7F61}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1">
+        <v>0.15456780000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.2548357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.49806509999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.14222750000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.25484839999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6">
+        <v>-5.0515289999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.25493209999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>-0.24317440000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>-0.2880143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>-0.33599129999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11">
+        <v>-0.25714949999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12">
+        <v>-0.128553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>-0.12857089999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>-9.727653E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15">
+        <v>-0.12584970000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16">
+        <v>-0.1490937</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F712AFB3-7DB9-E246-AE6E-AE8A769A2D55}">
   <dimension ref="A1:R31"/>
   <sheetViews>
@@ -4641,7 +6002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF308DC9-11D6-B848-9FE7-C75683094A46}">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -4784,7 +6145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2C4459-8FDE-AF42-B5FC-553EB3E54988}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -5069,451 +6430,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BD1D83-1532-C641-B9F3-C1064633A433}">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>-0.12671650000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>-0.17773839999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0.26469169999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1.6461489999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>-0.28818189999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>-0.13087360000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0.16556219999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>-0.1059253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>-0.3443233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>1.5160369999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>-0.3522093</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13">
-        <v>-2.6415050000000002E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>0.4915156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>3.869802E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>0.17957139999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9944E6D6-BD91-D54B-9179-05A0BDA10A1D}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
-        <v>-3.4939270000000001E-2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.32838040000000002</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-0.1889747</v>
-      </c>
-      <c r="E2" s="3">
-        <v>8.2287639999999995E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.1162682</v>
-      </c>
-      <c r="C3" s="3">
-        <v>-0.1808044</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.1259487</v>
-      </c>
-      <c r="E3" s="3">
-        <v>-0.1422572</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.32546560000000002</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.13265550000000001</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-0.37767020000000001</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.39188800000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.27527020000000002</v>
-      </c>
-      <c r="C5" s="3">
-        <v>-8.0646920000000005E-4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-0.18215139999999999</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.17886270000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.1262373</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.2870896</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-4.809679E-2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-0.23127739999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3">
-        <v>-0.30395230000000001</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-0.34296870000000002</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.42032350000000002</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-0.29848819999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.1149671</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-1.547747E-2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-0.10989259999999999</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.15225630000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3">
-        <v>9.8014329999999997E-2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>8.1776390000000004E-2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-9.001265E-2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4.3051760000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3">
-        <v>-9.8645559999999993E-2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1.046708E-2</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.1389348</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-0.20229569999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.11586390000000001</v>
-      </c>
-      <c r="C11" s="3">
-        <v>-7.9664509999999994E-2</v>
-      </c>
-      <c r="D11" s="3">
-        <v>9.1518020000000005E-3</v>
-      </c>
-      <c r="E11" s="3">
-        <v>-1.6986250000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3">
-        <v>-6.8386790000000003E-2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>-8.2679970000000005E-2</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.24817130000000001</v>
-      </c>
-      <c r="E12" s="3">
-        <v>-0.33922380000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.1230861</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.3340687</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-0.22645129999999999</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5.9178950000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.42599169999999997</v>
-      </c>
-      <c r="C14" s="3">
-        <v>-5.2599739999999999E-2</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-0.36433070000000001</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.46783039999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.29788130000000002</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.43515569999999998</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-0.41631629999999997</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.2213426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.26608290000000001</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.17551900000000001</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-0.33442670000000002</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.30627450000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3">
-        <v>-0.36076429999999998</v>
-      </c>
-      <c r="C17" s="3">
-        <v>-0.24852489999999999</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.3760618</v>
-      </c>
-      <c r="E17" s="3">
-        <v>-0.26585819999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>